--- a/medicine/Psychotrope/Brasserie_de_la_Lesse/Brasserie_de_la_Lesse.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_la_Lesse/Brasserie_de_la_Lesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie de la Lesse est une brasserie artisanale belge située à Éprave, dans la commune de Rochefort en province de Namur.  Elle se trouve au confluent des vallées de la Lesse et de la Lomme. Elle fabrique et met en bouteille des bières 100% bio.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie de la Lesse est née de consommateurs qui deviennent des producteurs en réalisant des petits brassins de manière itinérant. Ils commercialisent, à l’échelle du village de Buissonville, une première bière, puis de nouvelles bières, dont : Li Berwette di Noyè, La Meuuh!. Toutes ces bières rencontrent un succès local et de nouveaux confrères se joignent à l'aventure. 
 Une décision est alors prise de faire brasser ces bières par un brasseur professionnel de la région. C'est Pierre Jacobs, de la brasserie Saint-Monon à Ambly, qui s'attelle à la tâche. Les bières de la confrérie sont désormais disponibles à la vente. On les retrouve dans des commerces locaux et sur les marchés de Noël. Tous les éléments sont réunis pour que l'aventure se poursuive à une autre échelle.
 En 2011, des membres de la Confrérie du Busson, Pierre Meirlaen, Jean-Pierre Deloyer et Norbert Buysse remettent en service l'ancienne Brasserie Rezette qui brassait jadis les bières « La Rochefortoise » au cœur du village d’Éprave. Ils décident de la rebaptiser : « Brasserie de la Lesse », selon la brasserie du même nom qui fut active au XXe siècle dans le village de Lessive.
-La production est faite sous la forme juridique de la coopérative[1].
+La production est faite sous la forme juridique de la coopérative.
 </t>
         </is>
       </c>
@@ -546,13 +560,15 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit 7 bières régulières et une bière saisonnière commercialisées en bouteilles réutilisables de 33 cl (APO33) :
-La Cambrée, une bière ambrée titrant 6,5 % en volume d'alcool. Elle a reçu en 2012 et 2018 le prix de la meilleure bière ambrée de moins de 8 % en volume d'alcool de Wallonie[2].
+La Cambrée, une bière ambrée titrant 6,5 % en volume d'alcool. Elle a reçu en 2012 et 2018 le prix de la meilleure bière ambrée de moins de 8 % en volume d'alcool de Wallonie.
 La Chinette, une bière blonde légèrement amère titrant 6 % en volume d'alcool.
 La Rouge Croix, une bière brune foncée de fermentation haute, refermentée en bouteille et titrant 7,5 % en volume d'alcool.
-La Blanche de Lessive, une bière blanche brassée en été titrant 5 % en volume d'alcool. Elle a reçu en 2016 le prix de la meilleure bière blanche de Wallonie[3].
+La Blanche de Lessive, une bière blanche brassée en été titrant 5 % en volume d'alcool. Elle a reçu en 2016 le prix de la meilleure bière blanche de Wallonie.
 L'esprit Triple's, une triple blonde titrant 8% d'alcool. En bouteille 33cl et 75cl
 La top Lesse, une véritable pils artisanale et bio titrant à 4,2% de volume d'alcool. Brassée depuis mars 2020, elle est disponible en bouteille 33cl et en fût de 20l.
 L'Hiveresse, une bière brune de fin d'année titrant 8 % en volume d'alcool.Bouteille 33cl et 75cl. C'est une bière saisonnière disponible à partir du 15 octobre jusqu'à rupture de stock
